--- a/10_ImageMeta/ImageMetaExtractorApp/documents/Design_FavMeta.xlsx
+++ b/10_ImageMeta/ImageMetaExtractorApp/documents/Design_FavMeta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_hos\source\mygithub\ImageCompareViewer\ImageMetaExtractorApp\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_hos\source\mygithub\ImageCompareViewer\10_ImageMeta\ImageMetaExtractorApp\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8142C750-5976-4257-8846-CF9F44F8D9EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E08B2D-060E-4145-AFB3-299A65F63D58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1848,6 +1848,94 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564B0DBC-93F3-4E54-9296-9A907E5D9264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152901" y="1247775"/>
+          <a:ext cx="4343400" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Favorite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のみを表示する仕様から、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全メタを表示する仕様に変えたので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この図の実装は消滅した。スッキリした。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
